--- a/biology/Écologie/Hydrosère/Hydrosère.xlsx
+++ b/biology/Écologie/Hydrosère/Hydrosère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hydros%C3%A8re</t>
+          <t>Hydrosère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hydrosère est une succession écologique qui se produit dans un lac d'eau douce.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hydros%C3%A8re</t>
+          <t>Hydrosère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec le temps, un espace ouvert d'eau douce comme un lac va naturellement se combler et devenir à terme une forêt (succession écologique). Au cours de ce changement, qui prend des centaines, voire des milliers d'années, différents milieux se succèdent tels que les marécages et marais. 
 La séquence temporelle va de l'eau ouverte au climax, moment final de l'évolution, qui peut donc être une forêt.
